--- a/artfynd/A 40652-2021.xlsx
+++ b/artfynd/A 40652-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396322</v>
+        <v>111396324</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625269.4478252844</v>
+        <v>625335.6676841485</v>
       </c>
       <c r="R2" t="n">
-        <v>7209630.115016816</v>
+        <v>7209609.168182318</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396313</v>
+        <v>111396308</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,38 +804,46 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625231.5510770321</v>
+        <v>625151.1577179903</v>
       </c>
       <c r="R3" t="n">
-        <v>7209481.895207534</v>
+        <v>7209567.512248591</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1016,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111396314</v>
+        <v>111396313</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1056,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625202.8383709632</v>
+        <v>625231.5510770321</v>
       </c>
       <c r="R5" t="n">
-        <v>7209539.171001118</v>
+        <v>7209481.895207534</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111396316</v>
+        <v>111396325</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1168,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625153.7279882778</v>
+        <v>625389.9085714296</v>
       </c>
       <c r="R6" t="n">
-        <v>7209526.513740451</v>
+        <v>7209580.514361567</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1240,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111396326</v>
+        <v>111396310</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1280,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625397.1584455093</v>
+        <v>625289.0018867656</v>
       </c>
       <c r="R7" t="n">
-        <v>7209589.718691397</v>
+        <v>7209518.212698339</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1352,7 +1360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111396325</v>
+        <v>111396321</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1392,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625389.9085714296</v>
+        <v>625240.2002264742</v>
       </c>
       <c r="R8" t="n">
-        <v>7209580.514361567</v>
+        <v>7209649.650274927</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1464,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111396315</v>
+        <v>111396316</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1504,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625167.9685939638</v>
+        <v>625153.7279882778</v>
       </c>
       <c r="R9" t="n">
-        <v>7209530.9258211</v>
+        <v>7209526.513740451</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1576,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111396312</v>
+        <v>111396317</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1616,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625242.7087276473</v>
+        <v>625153.5624699651</v>
       </c>
       <c r="R10" t="n">
-        <v>7209468.80281719</v>
+        <v>7209550.662191558</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1688,7 +1696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111396323</v>
+        <v>111396326</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1728,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625301.6605433678</v>
+        <v>625397.1584455093</v>
       </c>
       <c r="R11" t="n">
-        <v>7209610.70454926</v>
+        <v>7209589.718691397</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1800,10 +1808,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111396308</v>
+        <v>111396314</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1812,46 +1820,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625151.1577179903</v>
+        <v>625202.8383709632</v>
       </c>
       <c r="R12" t="n">
-        <v>7209567.512248591</v>
+        <v>7209539.171001118</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111396324</v>
+        <v>111396322</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625335.6676841485</v>
+        <v>625269.4478252844</v>
       </c>
       <c r="R13" t="n">
-        <v>7209609.168182318</v>
+        <v>7209630.115016816</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111396311</v>
+        <v>111396312</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625271.0561409625</v>
+        <v>625242.7087276473</v>
       </c>
       <c r="R14" t="n">
-        <v>7209511.101565193</v>
+        <v>7209468.80281719</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111396317</v>
+        <v>111396323</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625153.5624699651</v>
+        <v>625301.6605433678</v>
       </c>
       <c r="R15" t="n">
-        <v>7209550.662191558</v>
+        <v>7209610.70454926</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111396310</v>
+        <v>111396311</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625289.0018867656</v>
+        <v>625271.0561409625</v>
       </c>
       <c r="R16" t="n">
-        <v>7209518.212698339</v>
+        <v>7209511.101565193</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111396321</v>
+        <v>111396318</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625240.2002264742</v>
+        <v>625177.6865340136</v>
       </c>
       <c r="R17" t="n">
-        <v>7209649.650274927</v>
+        <v>7209552.099144561</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111396318</v>
+        <v>111396315</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>625177.6865340136</v>
+        <v>625167.9685939638</v>
       </c>
       <c r="R18" t="n">
-        <v>7209552.099144561</v>
+        <v>7209530.9258211</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 40652-2021.xlsx
+++ b/artfynd/A 40652-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396324</v>
+        <v>111396308</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625335.6676841485</v>
+        <v>625151.1577179903</v>
       </c>
       <c r="R2" t="n">
-        <v>7209609.168182318</v>
+        <v>7209567.512248591</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396308</v>
+        <v>111396322</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,46 +812,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625151.1577179903</v>
+        <v>625269.4478252844</v>
       </c>
       <c r="R3" t="n">
-        <v>7209567.512248591</v>
+        <v>7209630.115016816</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396309</v>
+        <v>111396326</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625341.71034419</v>
+        <v>625397.1584455093</v>
       </c>
       <c r="R4" t="n">
-        <v>7209536.108963673</v>
+        <v>7209589.718691397</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111396313</v>
+        <v>111396321</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1064,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625231.5510770321</v>
+        <v>625240.2002264742</v>
       </c>
       <c r="R5" t="n">
-        <v>7209481.895207534</v>
+        <v>7209649.650274927</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111396325</v>
+        <v>111396319</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625389.9085714296</v>
+        <v>625228.8129008666</v>
       </c>
       <c r="R6" t="n">
-        <v>7209580.514361567</v>
+        <v>7209607.642547456</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111396310</v>
+        <v>111396312</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625289.0018867656</v>
+        <v>625242.7087276473</v>
       </c>
       <c r="R7" t="n">
-        <v>7209518.212698339</v>
+        <v>7209468.80281719</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111396321</v>
+        <v>111396315</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625240.2002264742</v>
+        <v>625167.9685939638</v>
       </c>
       <c r="R8" t="n">
-        <v>7209649.650274927</v>
+        <v>7209530.9258211</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111396316</v>
+        <v>111396311</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625153.7279882778</v>
+        <v>625271.0561409625</v>
       </c>
       <c r="R9" t="n">
-        <v>7209526.513740451</v>
+        <v>7209511.101565193</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111396317</v>
+        <v>111396325</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625153.5624699651</v>
+        <v>625389.9085714296</v>
       </c>
       <c r="R10" t="n">
-        <v>7209550.662191558</v>
+        <v>7209580.514361567</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111396326</v>
+        <v>111396310</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625397.1584455093</v>
+        <v>625289.0018867656</v>
       </c>
       <c r="R11" t="n">
-        <v>7209589.718691397</v>
+        <v>7209518.212698339</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111396314</v>
+        <v>111396317</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625202.8383709632</v>
+        <v>625153.5624699651</v>
       </c>
       <c r="R12" t="n">
-        <v>7209539.171001118</v>
+        <v>7209550.662191558</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111396322</v>
+        <v>111396323</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625269.4478252844</v>
+        <v>625301.6605433678</v>
       </c>
       <c r="R13" t="n">
-        <v>7209630.115016816</v>
+        <v>7209610.70454926</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111396312</v>
+        <v>111396318</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625242.7087276473</v>
+        <v>625177.6865340136</v>
       </c>
       <c r="R14" t="n">
-        <v>7209468.80281719</v>
+        <v>7209552.099144561</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111396323</v>
+        <v>111396314</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625301.6605433678</v>
+        <v>625202.8383709632</v>
       </c>
       <c r="R15" t="n">
-        <v>7209610.70454926</v>
+        <v>7209539.171001118</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111396311</v>
+        <v>111396309</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625271.0561409625</v>
+        <v>625341.71034419</v>
       </c>
       <c r="R16" t="n">
-        <v>7209511.101565193</v>
+        <v>7209536.108963673</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111396318</v>
+        <v>111396316</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625177.6865340136</v>
+        <v>625153.7279882778</v>
       </c>
       <c r="R17" t="n">
-        <v>7209552.099144561</v>
+        <v>7209526.513740451</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111396315</v>
+        <v>111396324</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>625167.9685939638</v>
+        <v>625335.6676841485</v>
       </c>
       <c r="R18" t="n">
-        <v>7209530.9258211</v>
+        <v>7209609.168182318</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111396319</v>
+        <v>111396313</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>625228.8129008666</v>
+        <v>625231.5510770321</v>
       </c>
       <c r="R19" t="n">
-        <v>7209607.642547456</v>
+        <v>7209481.895207534</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>

--- a/artfynd/A 40652-2021.xlsx
+++ b/artfynd/A 40652-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396308</v>
+        <v>111396318</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625151.1577179903</v>
+        <v>625177.6865340136</v>
       </c>
       <c r="R2" t="n">
-        <v>7209567.512248591</v>
+        <v>7209552.099144561</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396322</v>
+        <v>111396314</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625269.4478252844</v>
+        <v>625202.8383709632</v>
       </c>
       <c r="R3" t="n">
-        <v>7209630.115016816</v>
+        <v>7209539.171001118</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396326</v>
+        <v>111396319</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625397.1584455093</v>
+        <v>625228.8129008666</v>
       </c>
       <c r="R4" t="n">
-        <v>7209589.718691397</v>
+        <v>7209607.642547456</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111396321</v>
+        <v>111396308</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1036,38 +1028,46 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625240.2002264742</v>
+        <v>625151.1577179903</v>
       </c>
       <c r="R5" t="n">
-        <v>7209649.650274927</v>
+        <v>7209567.512248591</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111396319</v>
+        <v>111396325</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625228.8129008666</v>
+        <v>625389.9085714296</v>
       </c>
       <c r="R6" t="n">
-        <v>7209607.642547456</v>
+        <v>7209580.514361567</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111396312</v>
+        <v>111396326</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625242.7087276473</v>
+        <v>625397.1584455093</v>
       </c>
       <c r="R7" t="n">
-        <v>7209468.80281719</v>
+        <v>7209589.718691397</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111396315</v>
+        <v>111396321</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625167.9685939638</v>
+        <v>625240.2002264742</v>
       </c>
       <c r="R8" t="n">
-        <v>7209530.9258211</v>
+        <v>7209649.650274927</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111396311</v>
+        <v>111396312</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625271.0561409625</v>
+        <v>625242.7087276473</v>
       </c>
       <c r="R9" t="n">
-        <v>7209511.101565193</v>
+        <v>7209468.80281719</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111396325</v>
+        <v>111396322</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625389.9085714296</v>
+        <v>625269.4478252844</v>
       </c>
       <c r="R10" t="n">
-        <v>7209580.514361567</v>
+        <v>7209630.115016816</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111396310</v>
+        <v>111396309</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625289.0018867656</v>
+        <v>625341.71034419</v>
       </c>
       <c r="R11" t="n">
-        <v>7209518.212698339</v>
+        <v>7209536.108963673</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111396317</v>
+        <v>111396311</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625153.5624699651</v>
+        <v>625271.0561409625</v>
       </c>
       <c r="R12" t="n">
-        <v>7209550.662191558</v>
+        <v>7209511.101565193</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111396323</v>
+        <v>111396317</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625301.6605433678</v>
+        <v>625153.5624699651</v>
       </c>
       <c r="R13" t="n">
-        <v>7209610.70454926</v>
+        <v>7209550.662191558</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111396318</v>
+        <v>111396315</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625177.6865340136</v>
+        <v>625167.9685939638</v>
       </c>
       <c r="R14" t="n">
-        <v>7209552.099144561</v>
+        <v>7209530.9258211</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111396314</v>
+        <v>111396310</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625202.8383709632</v>
+        <v>625289.0018867656</v>
       </c>
       <c r="R15" t="n">
-        <v>7209539.171001118</v>
+        <v>7209518.212698339</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111396309</v>
+        <v>111396323</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625341.71034419</v>
+        <v>625301.6605433678</v>
       </c>
       <c r="R16" t="n">
-        <v>7209536.108963673</v>
+        <v>7209610.70454926</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111396316</v>
+        <v>111396324</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625153.7279882778</v>
+        <v>625335.6676841485</v>
       </c>
       <c r="R17" t="n">
-        <v>7209526.513740451</v>
+        <v>7209609.168182318</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111396324</v>
+        <v>111396316</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>625335.6676841485</v>
+        <v>625153.7279882778</v>
       </c>
       <c r="R18" t="n">
-        <v>7209609.168182318</v>
+        <v>7209526.513740451</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>

--- a/artfynd/A 40652-2021.xlsx
+++ b/artfynd/A 40652-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396318</v>
+        <v>111396308</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,46 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625177.6865340136</v>
+        <v>625151.1577179903</v>
       </c>
       <c r="R2" t="n">
-        <v>7209552.099144561</v>
+        <v>7209567.512248591</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,7 +800,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396314</v>
+        <v>111396312</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -832,10 +840,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625202.8383709632</v>
+        <v>625242.7087276473</v>
       </c>
       <c r="R3" t="n">
-        <v>7209539.171001118</v>
+        <v>7209468.80281719</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396319</v>
+        <v>111396313</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -944,10 +952,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625228.8129008666</v>
+        <v>625231.5510770321</v>
       </c>
       <c r="R4" t="n">
-        <v>7209607.642547456</v>
+        <v>7209481.895207534</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,10 +1024,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111396308</v>
+        <v>111396316</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,46 +1036,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625151.1577179903</v>
+        <v>625153.7279882778</v>
       </c>
       <c r="R5" t="n">
-        <v>7209567.512248591</v>
+        <v>7209526.513740451</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111396325</v>
+        <v>111396309</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625389.9085714296</v>
+        <v>625341.71034419</v>
       </c>
       <c r="R6" t="n">
-        <v>7209580.514361567</v>
+        <v>7209536.108963673</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111396326</v>
+        <v>111396314</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625397.1584455093</v>
+        <v>625202.8383709632</v>
       </c>
       <c r="R7" t="n">
-        <v>7209589.718691397</v>
+        <v>7209539.171001118</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111396321</v>
+        <v>111396319</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1400,10 +1400,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625240.2002264742</v>
+        <v>625228.8129008666</v>
       </c>
       <c r="R8" t="n">
-        <v>7209649.650274927</v>
+        <v>7209607.642547456</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111396312</v>
+        <v>111396315</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625242.7087276473</v>
+        <v>625167.9685939638</v>
       </c>
       <c r="R9" t="n">
-        <v>7209468.80281719</v>
+        <v>7209530.9258211</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111396322</v>
+        <v>111396311</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625269.4478252844</v>
+        <v>625271.0561409625</v>
       </c>
       <c r="R10" t="n">
-        <v>7209630.115016816</v>
+        <v>7209511.101565193</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111396309</v>
+        <v>111396325</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1736,10 +1736,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625341.71034419</v>
+        <v>625389.9085714296</v>
       </c>
       <c r="R11" t="n">
-        <v>7209536.108963673</v>
+        <v>7209580.514361567</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111396311</v>
+        <v>111396326</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1848,10 +1848,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625271.0561409625</v>
+        <v>625397.1584455093</v>
       </c>
       <c r="R12" t="n">
-        <v>7209511.101565193</v>
+        <v>7209589.718691397</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111396317</v>
+        <v>111396318</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1960,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625153.5624699651</v>
+        <v>625177.6865340136</v>
       </c>
       <c r="R13" t="n">
-        <v>7209550.662191558</v>
+        <v>7209552.099144561</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111396315</v>
+        <v>111396322</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2072,10 +2072,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>625167.9685939638</v>
+        <v>625269.4478252844</v>
       </c>
       <c r="R14" t="n">
-        <v>7209530.9258211</v>
+        <v>7209630.115016816</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111396310</v>
+        <v>111396323</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2184,10 +2184,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625289.0018867656</v>
+        <v>625301.6605433678</v>
       </c>
       <c r="R15" t="n">
-        <v>7209518.212698339</v>
+        <v>7209610.70454926</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111396323</v>
+        <v>111396324</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625301.6605433678</v>
+        <v>625335.6676841485</v>
       </c>
       <c r="R16" t="n">
-        <v>7209610.70454926</v>
+        <v>7209609.168182318</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111396324</v>
+        <v>111396321</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625335.6676841485</v>
+        <v>625240.2002264742</v>
       </c>
       <c r="R17" t="n">
-        <v>7209609.168182318</v>
+        <v>7209649.650274927</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2480,7 +2480,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111396316</v>
+        <v>111396317</v>
       </c>
       <c r="B18" t="n">
         <v>96348</v>
@@ -2520,10 +2520,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>625153.7279882778</v>
+        <v>625153.5624699651</v>
       </c>
       <c r="R18" t="n">
-        <v>7209526.513740451</v>
+        <v>7209550.662191558</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111396313</v>
+        <v>111396310</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>625231.5510770321</v>
+        <v>625289.0018867656</v>
       </c>
       <c r="R19" t="n">
-        <v>7209481.895207534</v>
+        <v>7209518.212698339</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>

--- a/artfynd/A 40652-2021.xlsx
+++ b/artfynd/A 40652-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111396308</v>
+        <v>111396323</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,46 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>625151.1577179903</v>
+        <v>625301.6605433678</v>
       </c>
       <c r="R2" t="n">
-        <v>7209567.512248591</v>
+        <v>7209610.70454926</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -800,7 +792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111396312</v>
+        <v>111396309</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -840,10 +832,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>625242.7087276473</v>
+        <v>625341.71034419</v>
       </c>
       <c r="R3" t="n">
-        <v>7209468.80281719</v>
+        <v>7209536.108963673</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +904,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111396313</v>
+        <v>111396312</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -952,10 +944,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>625231.5510770321</v>
+        <v>625242.7087276473</v>
       </c>
       <c r="R4" t="n">
-        <v>7209481.895207534</v>
+        <v>7209468.80281719</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1024,7 +1016,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111396316</v>
+        <v>111396311</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1064,10 +1056,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>625153.7279882778</v>
+        <v>625271.0561409625</v>
       </c>
       <c r="R5" t="n">
-        <v>7209526.513740451</v>
+        <v>7209511.101565193</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,7 +1128,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111396309</v>
+        <v>111396324</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1176,10 +1168,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>625341.71034419</v>
+        <v>625335.6676841485</v>
       </c>
       <c r="R6" t="n">
-        <v>7209536.108963673</v>
+        <v>7209609.168182318</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1248,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111396314</v>
+        <v>111396325</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1288,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>625202.8383709632</v>
+        <v>625389.9085714296</v>
       </c>
       <c r="R7" t="n">
-        <v>7209539.171001118</v>
+        <v>7209580.514361567</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1360,7 +1352,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111396319</v>
+        <v>111396313</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1400,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>625228.8129008666</v>
+        <v>625231.5510770321</v>
       </c>
       <c r="R8" t="n">
-        <v>7209607.642547456</v>
+        <v>7209481.895207534</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1472,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111396315</v>
+        <v>111396318</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1512,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>625167.9685939638</v>
+        <v>625177.6865340136</v>
       </c>
       <c r="R9" t="n">
-        <v>7209530.9258211</v>
+        <v>7209552.099144561</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1576,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111396311</v>
+        <v>111396319</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1624,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>625271.0561409625</v>
+        <v>625228.8129008666</v>
       </c>
       <c r="R10" t="n">
-        <v>7209511.101565193</v>
+        <v>7209607.642547456</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1696,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111396325</v>
+        <v>111396316</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1736,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>625389.9085714296</v>
+        <v>625153.7279882778</v>
       </c>
       <c r="R11" t="n">
-        <v>7209580.514361567</v>
+        <v>7209526.513740451</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1808,7 +1800,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111396326</v>
+        <v>111396310</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1848,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>625397.1584455093</v>
+        <v>625289.0018867656</v>
       </c>
       <c r="R12" t="n">
-        <v>7209589.718691397</v>
+        <v>7209518.212698339</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1920,7 +1912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111396318</v>
+        <v>111396317</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1960,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>625177.6865340136</v>
+        <v>625153.5624699651</v>
       </c>
       <c r="R13" t="n">
-        <v>7209552.099144561</v>
+        <v>7209550.662191558</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2144,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111396323</v>
+        <v>111396315</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2184,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>625301.6605433678</v>
+        <v>625167.9685939638</v>
       </c>
       <c r="R15" t="n">
-        <v>7209610.70454926</v>
+        <v>7209530.9258211</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2256,7 +2248,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111396324</v>
+        <v>111396321</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2296,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>625335.6676841485</v>
+        <v>625240.2002264742</v>
       </c>
       <c r="R16" t="n">
-        <v>7209609.168182318</v>
+        <v>7209649.650274927</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2368,7 +2360,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111396321</v>
+        <v>111396326</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2408,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>625240.2002264742</v>
+        <v>625397.1584455093</v>
       </c>
       <c r="R17" t="n">
-        <v>7209649.650274927</v>
+        <v>7209589.718691397</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2480,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111396317</v>
+        <v>111396308</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2492,38 +2484,46 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>V Lill-Tjickuträsket, Ly lm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>625153.5624699651</v>
+        <v>625151.1577179903</v>
       </c>
       <c r="R18" t="n">
-        <v>7209550.662191558</v>
+        <v>7209567.512248591</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111396310</v>
+        <v>111396314</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2632,10 +2632,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>625289.0018867656</v>
+        <v>625202.8383709632</v>
       </c>
       <c r="R19" t="n">
-        <v>7209518.212698339</v>
+        <v>7209539.171001118</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
